--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N2">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O2">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P2">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q2">
-        <v>11.609609113655</v>
+        <v>0.128599065819</v>
       </c>
       <c r="R2">
-        <v>69.65765468193001</v>
+        <v>0.5143962632760001</v>
       </c>
       <c r="S2">
-        <v>0.3118278022120892</v>
+        <v>0.005551587032352685</v>
       </c>
       <c r="T2">
-        <v>0.2609722306206091</v>
+        <v>0.002883442643137188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.969268</v>
       </c>
       <c r="O3">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P3">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q3">
-        <v>13.28240345009333</v>
+        <v>1.382339748132</v>
       </c>
       <c r="R3">
-        <v>119.54163105084</v>
+        <v>8.294038488791999</v>
       </c>
       <c r="S3">
-        <v>0.3567581505449087</v>
+        <v>0.05967523458402493</v>
       </c>
       <c r="T3">
-        <v>0.4478624244501941</v>
+        <v>0.04649214228364667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,42 +685,42 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N4">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O4">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P4">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q4">
-        <v>1.32466260589</v>
+        <v>0.116980359426</v>
       </c>
       <c r="R4">
-        <v>7.94797563534</v>
+        <v>0.467921437704</v>
       </c>
       <c r="S4">
-        <v>0.03557971892278237</v>
+        <v>0.005050010606946318</v>
       </c>
       <c r="T4">
-        <v>0.02977707101888695</v>
+        <v>0.002622928515306587</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,43 +732,43 @@
         <v>13.41987666666667</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N5">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O5">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P5">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q5">
-        <v>1.506926897484445</v>
+        <v>1.235661983836667</v>
       </c>
       <c r="R5">
-        <v>13.56234207736</v>
+        <v>7.413971903019999</v>
       </c>
       <c r="S5">
-        <v>0.04047523891085766</v>
+        <v>0.05334319500807221</v>
       </c>
       <c r="T5">
-        <v>0.05081128097880885</v>
+        <v>0.04155893863622132</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H6">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I6">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J6">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N6">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O6">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P6">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q6">
-        <v>0.101135446846</v>
+        <v>13.28240345009333</v>
       </c>
       <c r="R6">
-        <v>0.6068126810760001</v>
+        <v>119.54163105084</v>
       </c>
       <c r="S6">
-        <v>0.002716443233100132</v>
+        <v>0.5733977792327021</v>
       </c>
       <c r="T6">
-        <v>0.002273422205676941</v>
+        <v>0.6700893089832183</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,155 +838,155 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H7">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I7">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J7">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N7">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O7">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P7">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q7">
-        <v>0.1157077550986666</v>
+        <v>1.124022029846667</v>
       </c>
       <c r="R7">
-        <v>1.041369795888</v>
+        <v>6.744132179079999</v>
       </c>
       <c r="S7">
-        <v>0.003107847526827946</v>
+        <v>0.04852372826532263</v>
       </c>
       <c r="T7">
-        <v>0.003901489359278122</v>
+        <v>0.03780415936979512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09870899999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N8">
-        <v>0.197418</v>
+        <v>0.184154</v>
       </c>
       <c r="O8">
-        <v>0.04778104240144566</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P8">
-        <v>0.0377200445797283</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q8">
-        <v>0.011539608548</v>
+        <v>0.028196555556</v>
       </c>
       <c r="R8">
-        <v>0.06923765128799998</v>
+        <v>0.169179333336</v>
       </c>
       <c r="S8">
-        <v>0.00030994762499612</v>
+        <v>0.001217237708414007</v>
       </c>
       <c r="T8">
-        <v>0.0002593986889462212</v>
+        <v>0.0009483329077311034</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>0.306228</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1122906666666667</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N9">
-        <v>0.336872</v>
+        <v>2.969268</v>
       </c>
       <c r="O9">
-        <v>0.0543553789957005</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P9">
-        <v>0.06436508756882468</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q9">
-        <v>0.01312737781688889</v>
+        <v>0.303091000368</v>
       </c>
       <c r="R9">
-        <v>0.118146400352</v>
+        <v>2.727819003312</v>
       </c>
       <c r="S9">
-        <v>0.0003525942461433539</v>
+        <v>0.01308435684621582</v>
       </c>
       <c r="T9">
-        <v>0.0004426351960950442</v>
+        <v>0.01529075967002029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H10">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I10">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J10">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,39 +1057,39 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8651055000000001</v>
+        <v>0.083758</v>
       </c>
       <c r="N10">
-        <v>1.730211</v>
+        <v>0.167516</v>
       </c>
       <c r="O10">
-        <v>0.418762651604452</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P10">
-        <v>0.3305860461170526</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q10">
-        <v>2.65330149379575</v>
+        <v>0.025649044824</v>
       </c>
       <c r="R10">
-        <v>10.613205975183</v>
+        <v>0.153894268944</v>
       </c>
       <c r="S10">
-        <v>0.07126623862324886</v>
+        <v>0.001107262356303316</v>
       </c>
       <c r="T10">
-        <v>0.0397623498813834</v>
+        <v>0.0008626526459999973</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1101,60 +1101,60 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H11">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I11">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J11">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.9897559999999999</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N11">
-        <v>2.969268</v>
+        <v>0.184154</v>
       </c>
       <c r="O11">
-        <v>0.4791009269984018</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P11">
-        <v>0.5673288217343945</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q11">
-        <v>3.035607880534</v>
+        <v>0.414819867857</v>
       </c>
       <c r="R11">
-        <v>18.213647283204</v>
+        <v>1.659279471428</v>
       </c>
       <c r="S11">
-        <v>0.08153478075771368</v>
+        <v>0.01790766196076776</v>
       </c>
       <c r="T11">
-        <v>0.06823738440432728</v>
+        <v>0.009301072978888518</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,57 +1163,57 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H12">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I12">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J12">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09870899999999999</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N12">
-        <v>0.197418</v>
+        <v>2.969268</v>
       </c>
       <c r="O12">
-        <v>0.04778104240144566</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P12">
-        <v>0.0377200445797283</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q12">
-        <v>0.3027431187885</v>
+        <v>4.458990335595999</v>
       </c>
       <c r="R12">
-        <v>1.210972475154</v>
+        <v>26.753942013576</v>
       </c>
       <c r="S12">
-        <v>0.008131515922927633</v>
+        <v>0.1924934117275938</v>
       </c>
       <c r="T12">
-        <v>0.004536905376791008</v>
+        <v>0.1499689301447612</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1225,140 +1225,140 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.0670265</v>
+        <v>4.505141</v>
       </c>
       <c r="H13">
-        <v>6.134053</v>
+        <v>9.010282</v>
       </c>
       <c r="I13">
-        <v>0.1701828908337422</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J13">
-        <v>0.1202783673068418</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1122906666666667</v>
+        <v>0.083758</v>
       </c>
       <c r="N13">
-        <v>0.336872</v>
+        <v>0.167516</v>
       </c>
       <c r="O13">
-        <v>0.0543553789957005</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P13">
-        <v>0.06436508756882468</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q13">
-        <v>0.3443984503693333</v>
+        <v>0.377341599878</v>
       </c>
       <c r="R13">
-        <v>2.066390702216</v>
+        <v>1.509366399512</v>
       </c>
       <c r="S13">
-        <v>0.00925035552985198</v>
+        <v>0.01628973522714669</v>
       </c>
       <c r="T13">
-        <v>0.007741727644340132</v>
+        <v>0.008460736889405004</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.8611266666666667</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H14">
-        <v>2.58338</v>
+        <v>0.391799</v>
       </c>
       <c r="I14">
-        <v>0.04778211910048955</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J14">
-        <v>0.05065569673642353</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.8651055000000001</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N14">
-        <v>1.730211</v>
+        <v>0.184154</v>
       </c>
       <c r="O14">
-        <v>0.418762651604452</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P14">
-        <v>0.3305860461170526</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q14">
-        <v>0.7449654155300001</v>
+        <v>0.01202522550766667</v>
       </c>
       <c r="R14">
-        <v>4.469792493180001</v>
+        <v>0.07215135304600001</v>
       </c>
       <c r="S14">
-        <v>0.02000936689380074</v>
+        <v>0.000519125746087773</v>
       </c>
       <c r="T14">
-        <v>0.01674606649739874</v>
+        <v>0.0004044436225254152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.8611266666666667</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H15">
-        <v>2.58338</v>
+        <v>0.391799</v>
       </c>
       <c r="I15">
-        <v>0.04778211910048955</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J15">
-        <v>0.05065569673642353</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,54 +1373,54 @@
         <v>2.969268</v>
       </c>
       <c r="O15">
-        <v>0.4791009269984018</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P15">
-        <v>0.5673288217343945</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q15">
-        <v>0.8523052850933333</v>
+        <v>0.1292618036813333</v>
       </c>
       <c r="R15">
-        <v>7.670747565839999</v>
+        <v>1.163356233132</v>
       </c>
       <c r="S15">
-        <v>0.02289245755499258</v>
+        <v>0.005580197247356557</v>
       </c>
       <c r="T15">
-        <v>0.02873843674360997</v>
+        <v>0.006521180675786538</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.8611266666666667</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H16">
-        <v>2.58338</v>
+        <v>0.391799</v>
       </c>
       <c r="I16">
-        <v>0.04778211910048955</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J16">
-        <v>0.05065569673642353</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,338 +1429,214 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09870899999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N16">
-        <v>0.197418</v>
+        <v>0.167516</v>
       </c>
       <c r="O16">
-        <v>0.04778104240144566</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P16">
-        <v>0.0377200445797283</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q16">
-        <v>0.08500095214</v>
+        <v>0.01093876688066667</v>
       </c>
       <c r="R16">
-        <v>0.51000571284</v>
+        <v>0.065632601284</v>
       </c>
       <c r="S16">
-        <v>0.002283079458771418</v>
+        <v>0.0004722236198053769</v>
       </c>
       <c r="T16">
-        <v>0.001910735139115093</v>
+        <v>0.000367902830625278</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.8611266666666667</v>
+        <v>0.115013</v>
       </c>
       <c r="H17">
-        <v>2.58338</v>
+        <v>0.345039</v>
       </c>
       <c r="I17">
-        <v>0.04778211910048955</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J17">
-        <v>0.05065569673642353</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.1122906666666667</v>
+        <v>0.09207700000000001</v>
       </c>
       <c r="N17">
-        <v>0.336872</v>
+        <v>0.184154</v>
       </c>
       <c r="O17">
-        <v>0.0543553789957005</v>
+        <v>0.0789959771480734</v>
       </c>
       <c r="P17">
-        <v>0.06436508756882468</v>
+        <v>0.05545240531440215</v>
       </c>
       <c r="Q17">
-        <v>0.09669648748444444</v>
+        <v>0.010590052001</v>
       </c>
       <c r="R17">
-        <v>0.87026838736</v>
+        <v>0.06354031200600001</v>
       </c>
       <c r="S17">
-        <v>0.00259721519292481</v>
+        <v>0.0004571696923789471</v>
       </c>
       <c r="T17">
-        <v>0.003260458356299728</v>
+        <v>0.0003561745258986029</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.115013</v>
+      </c>
+      <c r="H18">
+        <v>0.345039</v>
+      </c>
+      <c r="I18">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J18">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H18">
-        <v>1.671026</v>
-      </c>
-      <c r="I18">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J18">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8651055000000001</v>
+        <v>0.9897559999999999</v>
       </c>
       <c r="N18">
-        <v>1.730211</v>
+        <v>2.969268</v>
       </c>
       <c r="O18">
-        <v>0.418762651604452</v>
+        <v>0.8491451975864605</v>
       </c>
       <c r="P18">
-        <v>0.3305860461170526</v>
+        <v>0.8941052196698643</v>
       </c>
       <c r="Q18">
-        <v>0.481871261081</v>
+        <v>0.113834806828</v>
       </c>
       <c r="R18">
-        <v>2.891227566486</v>
+        <v>1.024513261452</v>
       </c>
       <c r="S18">
-        <v>0.01294280064221302</v>
+        <v>0.004914217948567146</v>
       </c>
       <c r="T18">
-        <v>0.01083197691198439</v>
+        <v>0.005742897912431403</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.5570086666666666</v>
+        <v>0.115013</v>
       </c>
       <c r="H19">
-        <v>1.671026</v>
+        <v>0.345039</v>
       </c>
       <c r="I19">
-        <v>0.03090724684406268</v>
+        <v>0.005787252830887944</v>
       </c>
       <c r="J19">
-        <v>0.03276598343823939</v>
+        <v>0.006423067202931537</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9897559999999999</v>
+        <v>0.083758</v>
       </c>
       <c r="N19">
-        <v>2.969268</v>
+        <v>0.167516</v>
       </c>
       <c r="O19">
-        <v>0.4791009269984018</v>
+        <v>0.07185882526546619</v>
       </c>
       <c r="P19">
-        <v>0.5673288217343945</v>
+        <v>0.05044237501573352</v>
       </c>
       <c r="Q19">
-        <v>0.5513026698853332</v>
+        <v>0.009633258854</v>
       </c>
       <c r="R19">
-        <v>4.961724028967999</v>
+        <v>0.05779955312399999</v>
       </c>
       <c r="S19">
-        <v>0.01480769061395886</v>
+        <v>0.0004158651899418513</v>
       </c>
       <c r="T19">
-        <v>0.01858908677698504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H20">
-        <v>1.671026</v>
-      </c>
-      <c r="I20">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J20">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.09870899999999999</v>
-      </c>
-      <c r="N20">
-        <v>0.197418</v>
-      </c>
-      <c r="O20">
-        <v>0.04778104240144566</v>
-      </c>
-      <c r="P20">
-        <v>0.0377200445797283</v>
-      </c>
-      <c r="Q20">
-        <v>0.05498176847799999</v>
-      </c>
-      <c r="R20">
-        <v>0.329890610868</v>
-      </c>
-      <c r="S20">
-        <v>0.001476780471968106</v>
-      </c>
-      <c r="T20">
-        <v>0.001235934355989029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H21">
-        <v>1.671026</v>
-      </c>
-      <c r="I21">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J21">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.1122906666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.336872</v>
-      </c>
-      <c r="O21">
-        <v>0.0543553789957005</v>
-      </c>
-      <c r="P21">
-        <v>0.06436508756882468</v>
-      </c>
-      <c r="Q21">
-        <v>0.0625468745191111</v>
-      </c>
-      <c r="R21">
-        <v>0.5629218706719999</v>
-      </c>
-      <c r="S21">
-        <v>0.001679975115922695</v>
-      </c>
-      <c r="T21">
-        <v>0.002108985393280938</v>
+        <v>0.0003239947646015312</v>
       </c>
     </row>
   </sheetData>
